--- a/Gráficas Tiempo.xlsx
+++ b/Gráficas Tiempo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\OneDrive\Escritorio\Uni\TERCER SEMESTRE\Algoritmos\HDT 5\HDT-5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6F91E7-5F80-4EA2-8D79-433B64D4DE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>Capacidad RAM 100</t>
+  </si>
+  <si>
+    <t>Intervalos</t>
+  </si>
+  <si>
+    <t>Capacidad RAM 200</t>
+  </si>
+  <si>
+    <t>Capacidad RAM 100 - CPU: 6 Instrucciones</t>
+  </si>
+  <si>
+    <t>Capacidad RAM 100 - 2 CPUs: 3 Instrucciones</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +96,4723 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>RAM 100</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tiempo 1 Intervalo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.83000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B61B-42FB-8667-E4970D317B7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tiempo 5 Intervalos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B61B-42FB-8667-E4970D317B7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tiempo 10 Intervalos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B61B-42FB-8667-E4970D317B7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1581334736"/>
+        <c:axId val="1581333904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1581334736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581333904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1581333904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581334736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>RAM 200</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tiempo 1 Intervalo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA22-4B69-BFDA-B9D894B70339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tiempo 5 Intervalos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA22-4B69-BFDA-B9D894B70339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tiempo 10 Intervalos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA22-4B69-BFDA-B9D894B70339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1581334736"/>
+        <c:axId val="1581333904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1581334736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581333904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1581333904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581334736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>RAM 100 - CPU:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> 6 Instrucciones</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tiempo 1 Intervalo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$S$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BA9-47FE-9790-DFF401570884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tiempo 5 Intervalos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$S$5:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BA9-47FE-9790-DFF401570884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tiempo 10 Intervalos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$S$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0BA9-47FE-9790-DFF401570884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1581334736"/>
+        <c:axId val="1581333904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1581334736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581333904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1581333904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581334736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>RAM 100 - 2 CPUs:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> 3 Instrucciones</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tiempo 1 Intervalo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$Z$4:$AD$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6B9-452B-9AF7-6D5EEC51A57E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tiempo 5 Intervalos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$Z$5:$AD$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F6B9-452B-9AF7-6D5EEC51A57E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tiempo 10 Intervalos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$Z$6:$AD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>8.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.739999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F6B9-452B-9AF7-6D5EEC51A57E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1581334736"/>
+        <c:axId val="1581333904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1581334736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581333904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1581333904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581334736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3D89A6-F85E-463E-8FE9-542A441B1826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAA7A86-16DF-4FB4-8275-94111C2DDED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F49E8FF-3482-43FA-933F-10CD4A4843F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0972A9F-617A-4A2A-AEDF-A453A4C4B931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +5077,356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>150</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>150</v>
+      </c>
+      <c r="O3">
+        <v>200</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>25</v>
+      </c>
+      <c r="T3">
+        <v>50</v>
+      </c>
+      <c r="U3">
+        <v>100</v>
+      </c>
+      <c r="V3">
+        <v>150</v>
+      </c>
+      <c r="W3">
+        <v>200</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>50</v>
+      </c>
+      <c r="AB3">
+        <v>100</v>
+      </c>
+      <c r="AC3">
+        <v>150</v>
+      </c>
+      <c r="AD3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>24.89</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44.13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>82.97</v>
+      </c>
+      <c r="G4" s="2">
+        <v>122.23</v>
+      </c>
+      <c r="H4" s="2">
+        <v>162.83000000000001</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>25.26</v>
+      </c>
+      <c r="L4" s="2">
+        <v>45.53</v>
+      </c>
+      <c r="M4" s="2">
+        <v>86.55</v>
+      </c>
+      <c r="N4" s="2">
+        <v>126.43</v>
+      </c>
+      <c r="O4" s="2">
+        <v>167.05</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>11.36</v>
+      </c>
+      <c r="T4" s="2">
+        <v>21.02</v>
+      </c>
+      <c r="U4" s="2">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="V4" s="2">
+        <v>60.15</v>
+      </c>
+      <c r="W4" s="2">
+        <v>80.28</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>21.61</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>41.1</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>60.79</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>81.03</v>
+      </c>
+    </row>
+    <row r="5" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>39.78</v>
+      </c>
+      <c r="F5" s="2">
+        <v>79</v>
+      </c>
+      <c r="G5" s="2">
+        <v>118.31</v>
+      </c>
+      <c r="H5" s="2">
+        <v>158.96</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="L5" s="2">
+        <v>41.81</v>
+      </c>
+      <c r="M5" s="2">
+        <v>82.54</v>
+      </c>
+      <c r="N5" s="2">
+        <v>122.49</v>
+      </c>
+      <c r="O5" s="2">
+        <v>163.25</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="T5" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="U5" s="2">
+        <v>36.76</v>
+      </c>
+      <c r="V5" s="2">
+        <v>56.08</v>
+      </c>
+      <c r="W5" s="2">
+        <v>76.3</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>7.83</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>17.62</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>37.28</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>56.86</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>77.41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>13.71</v>
+      </c>
+      <c r="E6" s="2">
+        <v>34.89</v>
+      </c>
+      <c r="F6" s="2">
+        <v>74.28</v>
+      </c>
+      <c r="G6" s="2">
+        <v>113.47</v>
+      </c>
+      <c r="H6" s="2">
+        <v>154.01</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2">
+        <v>13.71</v>
+      </c>
+      <c r="L6" s="2">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="M6" s="2">
+        <v>77.38</v>
+      </c>
+      <c r="N6" s="2">
+        <v>117.59</v>
+      </c>
+      <c r="O6" s="2">
+        <v>158.69</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="T6">
+        <v>11.39</v>
+      </c>
+      <c r="U6">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="V6">
+        <v>50.92</v>
+      </c>
+      <c r="W6">
+        <v>71.31</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="AA6">
+        <v>12.64</v>
+      </c>
+      <c r="AB6">
+        <v>32.82</v>
+      </c>
+      <c r="AC6">
+        <v>52.17</v>
+      </c>
+      <c r="AD6">
+        <v>72.739999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="J2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gráficas Tiempo.xlsx
+++ b/Gráficas Tiempo.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\OneDrive\Escritorio\Uni\TERCER SEMESTRE\Algoritmos\HDT 5\HDT-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6F91E7-5F80-4EA2-8D79-433B64D4DE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF7B8D-4E61-4FCF-972B-4C40FB94F313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Capacidad RAM 100</t>
   </si>
@@ -40,6 +50,9 @@
   </si>
   <si>
     <t>Capacidad RAM 100 - 2 CPUs: 3 Instrucciones</t>
+  </si>
+  <si>
+    <t>Desv. Est.</t>
   </si>
 </sst>
 </file>
@@ -77,10 +90,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,7 +206,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:f>Hoja1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -217,7 +230,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$4:$H$4</c:f>
+              <c:f>Hoja1!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -266,7 +279,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:f>Hoja1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -290,7 +303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$5:$H$5</c:f>
+              <c:f>Hoja1!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -339,7 +352,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$6:$H$6</c:f>
+              <c:f>Hoja1!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -775,7 +788,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:f>Hoja1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -799,7 +812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$4:$O$4</c:f>
+              <c:f>Hoja1!$J$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -848,7 +861,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:f>Hoja1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -872,7 +885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$5:$O$5</c:f>
+              <c:f>Hoja1!$J$5:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -921,7 +934,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$6:$O$6</c:f>
+              <c:f>Hoja1!$J$6:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1362,7 +1375,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:f>Hoja1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1386,7 +1399,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$S$4:$W$4</c:f>
+              <c:f>Hoja1!$R$4:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1435,7 +1448,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:f>Hoja1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1459,7 +1472,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$S$5:$W$5</c:f>
+              <c:f>Hoja1!$R$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1508,7 +1521,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$S$6:$W$6</c:f>
+              <c:f>Hoja1!$R$6:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1949,7 +1962,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:f>Hoja1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2022,7 +2035,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$H$3</c:f>
+              <c:f>Hoja1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4664,16 +4677,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4700,16 +4713,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4739,15 +4752,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4777,15 +4790,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5078,105 +5091,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AD6"/>
+  <dimension ref="A2:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
       <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="K3">
         <v>50</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>100</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>150</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>200</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="R3">
         <v>25</v>
       </c>
-      <c r="L3">
+      <c r="S3">
         <v>50</v>
       </c>
-      <c r="M3">
+      <c r="T3">
         <v>100</v>
       </c>
-      <c r="N3">
+      <c r="U3">
         <v>150</v>
       </c>
-      <c r="O3">
+      <c r="V3">
         <v>200</v>
       </c>
-      <c r="R3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>25</v>
-      </c>
-      <c r="T3">
-        <v>50</v>
-      </c>
-      <c r="U3">
-        <v>100</v>
-      </c>
-      <c r="V3">
-        <v>150</v>
-      </c>
-      <c r="W3">
-        <v>200</v>
+      <c r="W3" t="s">
+        <v>5</v>
       </c>
       <c r="Y3" t="s">
         <v>1</v>
@@ -5196,214 +5225,261 @@
       <c r="AD3">
         <v>200</v>
       </c>
+      <c r="AE3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="C4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="B4" s="1">
         <v>24.89</v>
       </c>
-      <c r="E4" s="2">
+      <c r="C4" s="1">
         <v>44.13</v>
       </c>
-      <c r="F4" s="2">
+      <c r="D4" s="1">
         <v>82.97</v>
       </c>
-      <c r="G4" s="2">
+      <c r="E4" s="1">
         <v>122.23</v>
       </c>
-      <c r="H4" s="2">
+      <c r="F4" s="1">
         <v>162.83000000000001</v>
       </c>
-      <c r="J4">
+      <c r="G4" s="1">
+        <f>_xlfn.STDEV.S(B4:F4)</f>
+        <v>56.352087805155868</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="J4" s="1">
         <v>25.26</v>
       </c>
-      <c r="L4" s="2">
+      <c r="K4" s="1">
         <v>45.53</v>
       </c>
-      <c r="M4" s="2">
+      <c r="L4" s="1">
         <v>86.55</v>
       </c>
-      <c r="N4" s="2">
+      <c r="M4" s="1">
         <v>126.43</v>
       </c>
-      <c r="O4" s="2">
+      <c r="N4" s="1">
         <v>167.05</v>
       </c>
-      <c r="R4">
+      <c r="O4" s="1">
+        <f>_xlfn.STDEV.S(J4:N4)</f>
+        <v>57.975132427619364</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="S4" s="2">
+      <c r="R4" s="1">
         <v>11.36</v>
       </c>
-      <c r="T4" s="2">
+      <c r="S4" s="1">
         <v>21.02</v>
       </c>
-      <c r="U4" s="2">
+      <c r="T4" s="1">
         <v>40.729999999999997</v>
       </c>
-      <c r="V4" s="2">
+      <c r="U4" s="1">
         <v>60.15</v>
       </c>
-      <c r="W4" s="2">
+      <c r="V4" s="1">
         <v>80.28</v>
+      </c>
+      <c r="W4" s="1">
+        <f>_xlfn.STDEV.S(R4:V4)</f>
+        <v>28.164061674410533</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>12</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>21.61</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>41.1</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="1">
         <v>60.79</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="1">
         <v>81.03</v>
       </c>
+      <c r="AE4" s="1">
+        <f>_xlfn.STDEV.S(Z4:AD4)</f>
+        <v>28.215416530684074</v>
+      </c>
     </row>
-    <row r="5" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="C5">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="B5" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="C5" s="1">
         <v>39.78</v>
       </c>
-      <c r="F5" s="2">
+      <c r="D5" s="1">
         <v>79</v>
       </c>
-      <c r="G5" s="2">
+      <c r="E5" s="1">
         <v>118.31</v>
       </c>
-      <c r="H5" s="2">
+      <c r="F5" s="1">
         <v>158.96</v>
       </c>
-      <c r="J5">
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G6" si="0">_xlfn.STDEV.S(B5:F5)</f>
+        <v>56.749703963985567</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="K5" s="2">
+      <c r="J5" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="L5" s="2">
+      <c r="K5" s="1">
         <v>41.81</v>
       </c>
-      <c r="M5" s="2">
+      <c r="L5" s="1">
         <v>82.54</v>
       </c>
-      <c r="N5" s="2">
+      <c r="M5" s="1">
         <v>122.49</v>
       </c>
-      <c r="O5" s="2">
+      <c r="N5" s="1">
         <v>163.25</v>
       </c>
-      <c r="R5">
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:O6" si="1">_xlfn.STDEV.S(J5:N5)</f>
+        <v>58.380262674982895</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="S5" s="2">
+      <c r="R5" s="1">
         <v>6.16</v>
       </c>
-      <c r="T5" s="2">
+      <c r="S5" s="1">
         <v>16.8</v>
       </c>
-      <c r="U5" s="2">
+      <c r="T5" s="1">
         <v>36.76</v>
       </c>
-      <c r="V5" s="2">
+      <c r="U5" s="1">
         <v>56.08</v>
       </c>
-      <c r="W5" s="2">
+      <c r="V5" s="1">
         <v>76.3</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" ref="W5:W6" si="2">_xlfn.STDEV.S(R5:V5)</f>
+        <v>28.537946667551257</v>
       </c>
       <c r="Y5">
         <v>5</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>7.83</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>17.62</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>37.28</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="1">
         <v>56.86</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="1">
         <v>77.41</v>
       </c>
+      <c r="AE5" s="1">
+        <f t="shared" ref="AE5:AE6" si="3">_xlfn.STDEV.S(Z5:AD5)</f>
+        <v>28.395155396651727</v>
+      </c>
     </row>
-    <row r="6" spans="3:30" x14ac:dyDescent="0.3">
-      <c r="C6">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="B6" s="1">
         <v>13.71</v>
       </c>
-      <c r="E6" s="2">
+      <c r="C6" s="1">
         <v>34.89</v>
       </c>
-      <c r="F6" s="2">
+      <c r="D6" s="1">
         <v>74.28</v>
       </c>
-      <c r="G6" s="2">
+      <c r="E6" s="1">
         <v>113.47</v>
       </c>
-      <c r="H6" s="2">
+      <c r="F6" s="1">
         <v>154.01</v>
       </c>
-      <c r="J6">
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>57.09888282619896</v>
+      </c>
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="K6" s="2">
+      <c r="J6" s="1">
         <v>13.71</v>
       </c>
-      <c r="L6" s="2">
+      <c r="K6" s="1">
         <v>36.270000000000003</v>
       </c>
-      <c r="M6" s="2">
+      <c r="L6" s="1">
         <v>77.38</v>
       </c>
-      <c r="N6" s="2">
+      <c r="M6" s="1">
         <v>117.59</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="1">
         <v>158.69</v>
       </c>
-      <c r="R6">
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>58.983081642111586</v>
+      </c>
+      <c r="Q6">
         <v>10</v>
       </c>
-      <c r="S6" s="2">
+      <c r="R6" s="1">
         <v>3.51</v>
       </c>
+      <c r="S6">
+        <v>11.39</v>
+      </c>
       <c r="T6">
-        <v>11.39</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="U6">
-        <v>32.130000000000003</v>
+        <v>50.92</v>
       </c>
       <c r="V6">
-        <v>50.92</v>
-      </c>
-      <c r="W6">
         <v>71.31</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="2"/>
+        <v>27.939944881835409</v>
       </c>
       <c r="Y6">
         <v>10</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="1">
         <v>8.3699999999999992</v>
       </c>
       <c r="AA6">
@@ -5417,14 +5493,18 @@
       </c>
       <c r="AD6">
         <v>72.739999999999995</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="3"/>
+        <v>27.065651109847689</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Y2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
